--- a/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>WSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -914,11 +928,11 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -926,11 +940,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1145,8 +1172,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1192,8 +1222,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,8 +1392,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1399,8 +1442,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1540,8 +1592,11 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1587,8 +1642,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,8 +1892,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1869,8 +1942,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1963,60 +2042,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2182,8 +2275,8 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,16 +2337,19 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -2267,8 +2366,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2288,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2611,14 +2731,17 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,16 +2879,17 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2890,8 +3027,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3453,13 +3627,13 @@
         <v>-1400</v>
       </c>
       <c r="K72" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="L72" s="3">
         <v>-1500</v>
       </c>
       <c r="M72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="N72" s="3">
         <v>-1400</v>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +3797,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3807,8 +4002,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,13 +4812,16 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4607,17 +4853,20 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>WSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,11 +945,11 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -943,11 +957,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1595,8 +1647,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2278,8 +2371,8 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,19 +2436,22 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2369,8 +2468,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2734,14 +2854,17 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2891,8 +3022,8 @@
       <c r="E57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3630,13 +3804,13 @@
         <v>-1400</v>
       </c>
       <c r="L72" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="M72" s="3">
         <v>-1500</v>
       </c>
       <c r="N72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="O72" s="3">
         <v>-1400</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4856,17 +5102,20 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>WSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,11 +962,11 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
@@ -960,11 +974,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1650,8 +1702,11 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2374,8 +2467,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,22 +2535,25 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2471,8 +2570,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2857,14 +2977,17 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3025,8 +3156,8 @@
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3807,13 +3981,13 @@
         <v>-1400</v>
       </c>
       <c r="M72" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="N72" s="3">
         <v>-1500</v>
       </c>
       <c r="O72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="P72" s="3">
         <v>-1400</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5105,17 +5351,20 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>WSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -965,11 +978,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
@@ -977,11 +990,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1235,8 +1261,11 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1520,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1537,8 +1579,11 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1705,8 +1756,11 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1761,8 +1815,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2110,11 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2097,8 +2169,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2209,69 +2287,75 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,13 +2515,16 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2470,8 +2562,8 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,25 +2633,28 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2573,8 +2671,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2980,14 +3099,17 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3159,8 +3289,8 @@
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3387,11 @@
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3800,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3984,13 +4157,13 @@
         <v>-1400</v>
       </c>
       <c r="N72" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="O72" s="3">
         <v>-1500</v>
       </c>
       <c r="P72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="Q72" s="3">
         <v>-1400</v>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4354,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4401,8 +4595,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,13 +5549,16 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5354,17 +5599,20 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -981,11 +995,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
@@ -993,11 +1007,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1264,8 +1291,11 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,8 +1563,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1582,8 +1625,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1759,8 +1811,11 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1818,8 +1873,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,8 +2183,11 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2172,8 +2245,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2290,72 +2369,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,16 +2608,19 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2565,8 +2658,8 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,28 +2732,31 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2674,8 +2773,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3102,14 +3222,17 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,25 +3402,26 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4160,13 +4334,13 @@
         <v>-1400</v>
       </c>
       <c r="O72" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="P72" s="3">
         <v>-1500</v>
       </c>
       <c r="Q72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="R72" s="3">
         <v>-1400</v>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4598,8 +4793,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,16 +5795,19 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5602,17 +5848,20 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>WSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -998,11 +1012,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
@@ -1010,11 +1024,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1814,8 +1866,11 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,19 +2701,22 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2661,8 +2754,8 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2746,20 +2845,20 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2776,8 +2875,8 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3225,14 +3345,17 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4337,13 +4511,13 @@
         <v>-1400</v>
       </c>
       <c r="P72" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="Q72" s="3">
         <v>-1500</v>
       </c>
       <c r="R72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="S72" s="3">
         <v>-1400</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,19 +6041,22 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5851,17 +6097,20 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>WSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +829,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +900,14 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +971,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1002,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1015,26 +1042,26 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
+      <c r="U12" s="3">
+        <v>0</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>4</v>
@@ -1042,8 +1069,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1140,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1211,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1282,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1310,10 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1324,8 +1377,14 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1389,8 +1448,14 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1479,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1546,14 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1617,14 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1688,14 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1674,8 +1759,14 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1830,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1901,14 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1869,8 +1972,14 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,8 +2043,14 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2327,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2398,14 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2324,8 +2469,14 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2540,14 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2454,78 +2611,90 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2745,10 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2639,8 +2812,14 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2883,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2715,14 +2900,14 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2757,11 +2942,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
@@ -2769,8 +2954,14 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +3025,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2848,8 +3045,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2863,8 +3060,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2878,11 +3075,11 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2899,8 +3096,14 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3167,14 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3238,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3309,14 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3380,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3522,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3348,14 +3587,20 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3664,14 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3484,8 +3735,14 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,31 +3793,33 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3599,8 +3860,14 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3931,14 @@
       <c r="W58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3729,8 +4002,14 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,8 +4073,14 @@
       <c r="W60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4144,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4215,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4428,14 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4184,8 +4499,14 @@
       <c r="W66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4810,14 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4514,16 +4861,16 @@
         <v>-1400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-1500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-1400</v>
       </c>
       <c r="U72" s="3">
         <v>-1400</v>
@@ -4534,8 +4881,14 @@
       <c r="W72" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +5094,14 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4794,8 +5165,14 @@
       <c r="W76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5236,90 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4994,8 +5383,14 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5414,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5481,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5836,14 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5907,14 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5938,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +6005,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6147,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +6218,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,25 +6529,31 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -6100,17 +6591,23 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6671,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6740,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>WSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,11 +1062,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
@@ -1060,11 +1074,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>4</v>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1383,8 +1410,11 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1454,8 +1484,11 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1623,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,8 +1734,11 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1765,8 +1808,11 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +1956,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1978,8 +2030,11 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2049,8 +2104,11 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2404,8 +2474,11 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2475,8 +2548,11 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,8 +2622,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2617,84 +2696,90 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2906,11 +2999,11 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2948,8 +3041,8 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
+      <c r="V43" s="3">
+        <v>0</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3051,20 +3150,20 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -3081,8 +3180,8 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3593,14 +3713,17 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
+      <c r="X52" s="3">
+        <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,16 +3925,17 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
+      <c r="E57" s="3">
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
@@ -3821,8 +3952,8 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4008,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4589,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4867,13 +5041,13 @@
         <v>-1400</v>
       </c>
       <c r="S72" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="T72" s="3">
         <v>-1500</v>
       </c>
       <c r="U72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="V72" s="3">
         <v>-1400</v>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,8 +5283,11 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,84 +5431,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5389,8 +5584,11 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,13 +6778,16 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6549,11 +6795,11 @@
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -6597,17 +6843,20 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>WSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1065,11 +1079,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
@@ -1077,11 +1091,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>4</v>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>4</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1413,8 +1440,11 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1487,8 +1517,11 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1663,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,8 +1777,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1811,8 +1854,11 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,8 +2008,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2033,8 +2085,11 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2107,8 +2162,11 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2477,8 +2547,11 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2551,8 +2624,11 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,8 +2701,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2699,87 +2778,93 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3002,11 +3095,11 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3044,8 +3137,8 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
+      <c r="W43" s="3">
+        <v>0</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3153,20 +3252,20 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -3183,8 +3282,8 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3716,14 +3836,17 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
+      <c r="Y52" s="3">
+        <v>0</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,19 +4056,20 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -3955,8 +4086,8 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,8 +5161,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5044,13 +5218,13 @@
         <v>-1400</v>
       </c>
       <c r="T72" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="U72" s="3">
         <v>-1500</v>
       </c>
       <c r="V72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="W72" s="3">
         <v>-1400</v>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,8 +5469,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,87 +5623,93 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5587,8 +5782,11 @@
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6846,17 +7092,20 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
+      <c r="X100" s="3">
+        <v>0</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WSCO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>WSCO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,97 +683,112 @@
     <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +864,20 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +953,20 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1042,20 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1083,12 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1082,8 +1137,8 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
@@ -1106,11 +1161,23 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1253,20 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1342,20 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1431,20 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1469,12 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1443,8 +1550,20 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1520,8 +1639,20 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1680,12 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,8 +1761,20 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1637,8 +1784,8 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1703,8 +1850,20 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,8 +1939,20 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1857,8 +2028,20 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2117,20 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2206,20 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2088,8 +2295,20 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2165,8 +2384,20 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2473,20 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2562,20 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2651,20 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2740,20 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,8 +2829,20 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2627,8 +2918,20 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +3007,20 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2781,90 +3096,114 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3231,12 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3264,12 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2998,8 +3345,20 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3434,20 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3098,8 +3469,8 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3110,8 +3481,8 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -3140,20 +3511,32 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3612,20 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3255,14 +3650,14 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3270,14 +3665,14 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -3285,17 +3680,17 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3306,8 +3701,20 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3790,20 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3879,20 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3968,20 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +4057,20 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +4146,20 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4235,20 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3839,14 +4318,26 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4413,20 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3999,8 +4502,20 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4543,12 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,16 +4576,20 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -4077,11 +4600,11 @@
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -4089,17 +4612,17 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -4134,8 +4657,20 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,8 +4746,20 @@
       <c r="AA58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4288,8 +4835,20 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,8 +4924,20 @@
       <c r="AA60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +5013,20 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +5102,20 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +5191,20 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +5280,20 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +5369,20 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4827,8 +5458,20 @@
       <c r="AA66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5499,12 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5580,20 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5669,20 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5758,20 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5847,20 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5221,10 +5916,10 @@
         <v>-1400</v>
       </c>
       <c r="U72" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="V72" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="W72" s="3">
         <v>-1400</v>
@@ -5233,16 +5928,28 @@
         <v>-1400</v>
       </c>
       <c r="Y72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="Z72" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="AA72" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AE72" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +6025,20 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +6114,20 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +6203,20 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5549,8 +6292,20 @@
       <c r="AA76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +6381,114 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5785,8 +6564,20 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6605,12 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6686,20 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6775,20 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6864,20 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6953,20 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +7042,20 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +7131,20 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +7220,20 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +7261,12 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +7342,20 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +7431,20 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7520,20 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +7609,20 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7650,12 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7731,20 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7820,20 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7909,20 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7998,20 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7095,17 +8078,29 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>4</v>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +8176,20 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +8263,18 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
